--- a/biology/Médecine/Fosse_(anatomie)/Fosse_(anatomie).xlsx
+++ b/biology/Médecine/Fosse_(anatomie)/Fosse_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, une fosse est une dépression ou un creux évasé généralement dans un os.
 Une fosse squelettique recouverte de cartilage se nomme une fosse articulaire.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Faisant intervenir plusieurs os
-Fosse crânienne antérieure.
+          <t>Faisant intervenir plusieurs os</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fosse crânienne antérieure.
 Fosse crânienne moyenne.
 Fosse crânienne postérieure.
 Fosse temporale
@@ -523,36 +540,7 @@
 Fosse ptérygopalatine.
 Fosse ptérygoïde
 Fosse nasale ou cavité nasale
-Fosse occlusale
-Os sphénoïde
-Fosse hypophysaire (selle turcique).
-Fosse scaphoïde
-Os temporal
-Fosse mandibulaire.
-Fosse jugulaire.
-Fosse de l'incus
-Os pariétal
-Fosse pariétale
-Os frontal
-Fosse lacrymale
-Fosse trochléaire
-Os lacrymal
-Fosse du sac lacrymal
-Os occipital
-Fosse condylaire
-Fosse cérébelleuse
-Fosse cérébrale
-Os maxillaire
-Fosse canine
-Fosse incisive
-Mandibule
-Fosse rétromolaire
-Fosse digastrique
-Fosse sublinguale
-Fosse submandibulaire
-Cartilage de l'oreille
-Fosse de l'anthélix
-Fosse triangulaire de l'auricule</t>
+Fosse occlusale</t>
         </is>
       </c>
     </row>
@@ -577,20 +565,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fosses squelettiques du membre supérieur</t>
+          <t>Fosses squelettiques du crâne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Scapula
-Fosse infra-épineuse
-Fosse supra-épineuse
-Fosse subscapulaire
-Cavité glénoïdale de la scapula (fosse glénoïde)
-Humérus
-Fosse radiale
-Fosse de l'olécrane
-Fosse coronoïde</t>
+          <t>Os sphénoïde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fosse hypophysaire (selle turcique).
+Fosse scaphoïde</t>
         </is>
       </c>
     </row>
@@ -615,14 +602,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fosses squelettiques de l'abdomen</t>
+          <t>Fosses squelettiques du crâne</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Os coxal
-Fosse iliaque interne
-Fosse de l'acétabulum</t>
+          <t>Os temporal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fosse mandibulaire.
+Fosse jugulaire.
+Fosse de l'incus</t>
         </is>
       </c>
     </row>
@@ -647,16 +640,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fosses squelettiques du membre inférieur</t>
+          <t>Fosses squelettiques du crâne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fémur
-Fosse trochantérienne
-Fosse intercondylaire
-Fibula
-Fosse de la malléole latérale</t>
+          <t>Os pariétal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fosse pariétale</t>
         </is>
       </c>
     </row>
@@ -681,28 +676,614 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Os frontal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fosse lacrymale
+Fosse trochléaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Os lacrymal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fosse du sac lacrymal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Os occipital</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fosse condylaire
+Fosse cérébelleuse
+Fosse cérébrale</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Os maxillaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fosse canine
+Fosse incisive</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mandibule</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fosse rétromolaire
+Fosse digastrique
+Fosse sublinguale
+Fosse submandibulaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du crâne</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cartilage de l'oreille</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fosse de l'anthélix
+Fosse triangulaire de l'auricule</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du membre supérieur</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Scapula</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fosse infra-épineuse
+Fosse supra-épineuse
+Fosse subscapulaire
+Cavité glénoïdale de la scapula (fosse glénoïde)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du membre supérieur</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Humérus</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fosse radiale
+Fosse de l'olécrane
+Fosse coronoïde</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques de l'abdomen</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Os coxal</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fosse iliaque interne
+Fosse de l'acétabulum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du membre inférieur</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fémur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fosse trochantérienne
+Fosse intercondylaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fosses squelettiques du membre inférieur</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fibula</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fosse de la malléole latérale</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Fosses non squelettiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Système nerveux
-Fosse latérale du cerveau
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Système nerveux</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fosse latérale du cerveau
 Fosse interpédonculaire du mésencéphale
-Fosse rhomboïde de la moelle allongée
-Oeil
-Fosse hyaloïde de l’œil
-Appareil oro-pharyngé
-Fosse oblongue du cartilage aryténoïde
+Fosse rhomboïde de la moelle allongée</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Oeil</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fosse hyaloïde de l’œil</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Appareil oro-pharyngé</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fosse oblongue du cartilage aryténoïde
 Fosse triangulaire du cartilage aryténoïde
 Fosse supratonsillaire au niveau du pharynx
-Fosse tonsillaire au niveau du pharynx
-Cœur
-Fosse ovale
-Foie
-Fosse de la vésicule biliaire
-Abdomen
-Fosses inguinales latérale et médiale
+Fosse tonsillaire au niveau du pharynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cœur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fosse ovale</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Foie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fosse de la vésicule biliaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Abdomen</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Fosses inguinales latérale et médiale
 Fosse épigastrique sous le sternum
 Fosse ovarienne
 Fosse supravésicale
@@ -711,9 +1292,43 @@
 Fosse naviculaire de l'uréthre
 Fosse du vestibule du vagin
 Fosse pararectale
-Fosse ischio-anale
-Sous-cutanée
-Fosse axillaire ou aisselle
+Fosse ischio-anale</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fosses non squelettiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sous-cutanée</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fosse axillaire ou aisselle
 Fosse supraclaviculaire
 Fosse infraclaviculaire sous la clavicule entre les muscles deltoïde et grand pectoral.
 Fosse cubitale ou pli du coude
